--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,57 +537,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.46273364387166</v>
+        <v>4.501665</v>
       </c>
       <c r="H2">
-        <v>4.46273364387166</v>
+        <v>9.00333</v>
       </c>
       <c r="I2">
-        <v>0.03168149931042635</v>
+        <v>0.02772143475899087</v>
       </c>
       <c r="J2">
-        <v>0.03168149931042635</v>
+        <v>0.01867425331407779</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.02065939246997</v>
+        <v>1.145848666666667</v>
       </c>
       <c r="N2">
-        <v>1.02065939246997</v>
+        <v>3.437546</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4563695929556329</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.456369592955633</v>
       </c>
       <c r="Q2">
-        <v>4.554931009709344</v>
+        <v>5.158226838029999</v>
       </c>
       <c r="R2">
-        <v>4.554931009709344</v>
+        <v>30.94936102818</v>
       </c>
       <c r="S2">
-        <v>0.03168149931042635</v>
+        <v>0.0126512198971068</v>
       </c>
       <c r="T2">
-        <v>0.03168149931042635</v>
+        <v>0.008522361383696058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.67418672761167</v>
+        <v>4.501665</v>
       </c>
       <c r="H3">
-        <v>3.67418672761167</v>
+        <v>9.00333</v>
       </c>
       <c r="I3">
-        <v>0.02608350700854741</v>
+        <v>0.02772143475899087</v>
       </c>
       <c r="J3">
-        <v>0.02608350700854741</v>
+        <v>0.01867425331407779</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.02065939246997</v>
+        <v>1.121905666666667</v>
       </c>
       <c r="N3">
-        <v>1.02065939246997</v>
+        <v>3.365717</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4468335543128307</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4468335543128308</v>
       </c>
       <c r="Q3">
-        <v>3.750093193225355</v>
+        <v>5.050443472935</v>
       </c>
       <c r="R3">
-        <v>3.750093193225355</v>
+        <v>30.30266083761</v>
       </c>
       <c r="S3">
-        <v>0.02608350700854741</v>
+        <v>0.01238686722401114</v>
       </c>
       <c r="T3">
-        <v>0.02608350700854741</v>
+        <v>0.008344282982467538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.4588837232624</v>
+        <v>4.501665</v>
       </c>
       <c r="H4">
-        <v>30.4588837232624</v>
+        <v>9.00333</v>
       </c>
       <c r="I4">
-        <v>0.2162313910443733</v>
+        <v>0.02772143475899087</v>
       </c>
       <c r="J4">
-        <v>0.2162313910443733</v>
+        <v>0.01867425331407779</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.02065939246997</v>
+        <v>0.2430366666666667</v>
       </c>
       <c r="N4">
-        <v>1.02065939246997</v>
+        <v>0.72911</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.09679685273153626</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.09679685273153626</v>
       </c>
       <c r="Q4">
-        <v>31.08814575629846</v>
+        <v>1.09406965605</v>
       </c>
       <c r="R4">
-        <v>31.08814575629846</v>
+        <v>6.5644179363</v>
       </c>
       <c r="S4">
-        <v>0.2162313910443733</v>
+        <v>0.00268334763787293</v>
       </c>
       <c r="T4">
-        <v>0.2162313910443733</v>
+        <v>0.001807608947914191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>98.4573157386876</v>
+        <v>4.104210333333334</v>
       </c>
       <c r="H5">
-        <v>98.4573157386876</v>
+        <v>12.312631</v>
       </c>
       <c r="I5">
-        <v>0.6989606885826872</v>
+        <v>0.02527389288022902</v>
       </c>
       <c r="J5">
-        <v>0.6989606885826872</v>
+        <v>0.02553823865800397</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.02065939246997</v>
+        <v>1.145848666666667</v>
       </c>
       <c r="N5">
-        <v>1.02065939246997</v>
+        <v>3.437546</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4563695929556329</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.456369592955633</v>
       </c>
       <c r="Q5">
-        <v>100.4913840660729</v>
+        <v>4.702803938169555</v>
       </c>
       <c r="R5">
-        <v>100.4913840660729</v>
+        <v>42.325235443526</v>
       </c>
       <c r="S5">
-        <v>0.6989606885826872</v>
+        <v>0.01153423620615439</v>
       </c>
       <c r="T5">
-        <v>0.6989606885826872</v>
+        <v>0.01165487558115708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,861 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.30269136398703</v>
+        <v>4.104210333333334</v>
       </c>
       <c r="H6">
-        <v>3.30269136398703</v>
+        <v>12.312631</v>
       </c>
       <c r="I6">
-        <v>0.02344621537393174</v>
+        <v>0.02527389288022902</v>
       </c>
       <c r="J6">
-        <v>0.02344621537393174</v>
+        <v>0.02553823865800397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.02065939246997</v>
+        <v>1.121905666666667</v>
       </c>
       <c r="N6">
-        <v>1.02065939246997</v>
+        <v>3.365717</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4468335543128307</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4468335543128308</v>
       </c>
       <c r="Q6">
-        <v>3.370922961082819</v>
+        <v>4.604536830158556</v>
       </c>
       <c r="R6">
-        <v>3.370922961082819</v>
+        <v>41.440831471427</v>
       </c>
       <c r="S6">
-        <v>0.02344621537393174</v>
+        <v>0.01129322338699448</v>
       </c>
       <c r="T6">
-        <v>0.02344621537393174</v>
+        <v>0.01141134195044525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.104210333333334</v>
+      </c>
+      <c r="H7">
+        <v>12.312631</v>
+      </c>
+      <c r="I7">
+        <v>0.02527389288022902</v>
+      </c>
+      <c r="J7">
+        <v>0.02553823865800397</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2430366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.72911</v>
+      </c>
+      <c r="O7">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="P7">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="Q7">
+        <v>0.9974735987122223</v>
+      </c>
+      <c r="R7">
+        <v>8.977262388410001</v>
+      </c>
+      <c r="S7">
+        <v>0.002446433287080152</v>
+      </c>
+      <c r="T7">
+        <v>0.002472021126401637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>50.56890300000001</v>
+      </c>
+      <c r="H8">
+        <v>151.706709</v>
+      </c>
+      <c r="I8">
+        <v>0.3114053456550494</v>
+      </c>
+      <c r="J8">
+        <v>0.3146624097207461</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.145848666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.437546</v>
+      </c>
+      <c r="O8">
+        <v>0.4563695929556329</v>
+      </c>
+      <c r="P8">
+        <v>0.456369592955633</v>
+      </c>
+      <c r="Q8">
+        <v>57.944310077346</v>
+      </c>
+      <c r="R8">
+        <v>521.498790696114</v>
+      </c>
+      <c r="S8">
+        <v>0.1421159308408031</v>
+      </c>
+      <c r="T8">
+        <v>0.1436023558426955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>50.56890300000001</v>
+      </c>
+      <c r="H9">
+        <v>151.706709</v>
+      </c>
+      <c r="I9">
+        <v>0.3114053456550494</v>
+      </c>
+      <c r="J9">
+        <v>0.3146624097207461</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.121905666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.365717</v>
+      </c>
+      <c r="O9">
+        <v>0.4468335543128307</v>
+      </c>
+      <c r="P9">
+        <v>0.4468335543128308</v>
+      </c>
+      <c r="Q9">
+        <v>56.73353883281701</v>
+      </c>
+      <c r="R9">
+        <v>510.6018494953531</v>
+      </c>
+      <c r="S9">
+        <v>0.1391463574310614</v>
+      </c>
+      <c r="T9">
+        <v>0.1406017229441612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>50.56890300000001</v>
+      </c>
+      <c r="H10">
+        <v>151.706709</v>
+      </c>
+      <c r="I10">
+        <v>0.3114053456550494</v>
+      </c>
+      <c r="J10">
+        <v>0.3146624097207461</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2430366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.72911</v>
+      </c>
+      <c r="O10">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="P10">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="Q10">
+        <v>12.29009762211</v>
+      </c>
+      <c r="R10">
+        <v>110.61087859899</v>
+      </c>
+      <c r="S10">
+        <v>0.03014305738318496</v>
+      </c>
+      <c r="T10">
+        <v>0.03045833093388938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>99.30358633333333</v>
+      </c>
+      <c r="H11">
+        <v>297.910759</v>
+      </c>
+      <c r="I11">
+        <v>0.6115154925729297</v>
+      </c>
+      <c r="J11">
+        <v>0.6179114814802055</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.145848666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.437546</v>
+      </c>
+      <c r="O11">
+        <v>0.4563695929556329</v>
+      </c>
+      <c r="P11">
+        <v>0.456369592955633</v>
+      </c>
+      <c r="Q11">
+        <v>113.7868819952682</v>
+      </c>
+      <c r="R11">
+        <v>1024.081937957414</v>
+      </c>
+      <c r="S11">
+        <v>0.2790770764315713</v>
+      </c>
+      <c r="T11">
+        <v>0.2819960112857335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>99.30358633333333</v>
+      </c>
+      <c r="H12">
+        <v>297.910759</v>
+      </c>
+      <c r="I12">
+        <v>0.6115154925729297</v>
+      </c>
+      <c r="J12">
+        <v>0.6179114814802055</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.121905666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.365717</v>
+      </c>
+      <c r="O12">
+        <v>0.4468335543128307</v>
+      </c>
+      <c r="P12">
+        <v>0.4468335543128308</v>
+      </c>
+      <c r="Q12">
+        <v>111.4092562276892</v>
+      </c>
+      <c r="R12">
+        <v>1002.683306049203</v>
+      </c>
+      <c r="S12">
+        <v>0.2732456410637236</v>
+      </c>
+      <c r="T12">
+        <v>0.2761035835205071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>99.30358633333333</v>
+      </c>
+      <c r="H13">
+        <v>297.910759</v>
+      </c>
+      <c r="I13">
+        <v>0.6115154925729297</v>
+      </c>
+      <c r="J13">
+        <v>0.6179114814802055</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2430366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.72911</v>
+      </c>
+      <c r="O13">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="P13">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="Q13">
+        <v>24.13441261049889</v>
+      </c>
+      <c r="R13">
+        <v>217.20971349449</v>
+      </c>
+      <c r="S13">
+        <v>0.05919277507763474</v>
+      </c>
+      <c r="T13">
+        <v>0.05981188667396484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.369957000000001</v>
+      </c>
+      <c r="H14">
+        <v>10.109871</v>
+      </c>
+      <c r="I14">
+        <v>0.02075233121880563</v>
+      </c>
+      <c r="J14">
+        <v>0.02096938488610869</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.145848666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.437546</v>
+      </c>
+      <c r="O14">
+        <v>0.4563695929556329</v>
+      </c>
+      <c r="P14">
+        <v>0.456369592955633</v>
+      </c>
+      <c r="Q14">
+        <v>3.861460735174</v>
+      </c>
+      <c r="R14">
+        <v>34.75314661656601</v>
+      </c>
+      <c r="S14">
+        <v>0.009470732951206796</v>
+      </c>
+      <c r="T14">
+        <v>0.009569789645003423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.369957000000001</v>
+      </c>
+      <c r="H15">
+        <v>10.109871</v>
+      </c>
+      <c r="I15">
+        <v>0.02075233121880563</v>
+      </c>
+      <c r="J15">
+        <v>0.02096938488610869</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.121905666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.365717</v>
+      </c>
+      <c r="O15">
+        <v>0.4468335543128307</v>
+      </c>
+      <c r="P15">
+        <v>0.4468335543128308</v>
+      </c>
+      <c r="Q15">
+        <v>3.780773854723001</v>
+      </c>
+      <c r="R15">
+        <v>34.02696469250701</v>
+      </c>
+      <c r="S15">
+        <v>0.009272837918776035</v>
+      </c>
+      <c r="T15">
+        <v>0.009369824780413699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.369957000000001</v>
+      </c>
+      <c r="H16">
+        <v>10.109871</v>
+      </c>
+      <c r="I16">
+        <v>0.02075233121880563</v>
+      </c>
+      <c r="J16">
+        <v>0.02096938488610869</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.2430366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.72911</v>
+      </c>
+      <c r="O16">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="P16">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="Q16">
+        <v>0.8190231160900002</v>
+      </c>
+      <c r="R16">
+        <v>7.371208044810002</v>
+      </c>
+      <c r="S16">
+        <v>0.002008760348822791</v>
+      </c>
+      <c r="T16">
+        <v>0.002029770460691565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5066397915383281</v>
-      </c>
-      <c r="H7">
-        <v>0.5066397915383281</v>
-      </c>
-      <c r="I7">
-        <v>0.003596698680033903</v>
-      </c>
-      <c r="J7">
-        <v>0.003596698680033903</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.02065939246997</v>
-      </c>
-      <c r="N7">
-        <v>1.02065939246997</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0.5171066618326222</v>
-      </c>
-      <c r="R7">
-        <v>0.5171066618326222</v>
-      </c>
-      <c r="S7">
-        <v>0.003596698680033903</v>
-      </c>
-      <c r="T7">
-        <v>0.003596698680033903</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5410005</v>
+      </c>
+      <c r="H17">
+        <v>1.082001</v>
+      </c>
+      <c r="I17">
+        <v>0.003331502913995475</v>
+      </c>
+      <c r="J17">
+        <v>0.002244231940858047</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.145848666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.437546</v>
+      </c>
+      <c r="O17">
+        <v>0.4563695929556329</v>
+      </c>
+      <c r="P17">
+        <v>0.456369592955633</v>
+      </c>
+      <c r="Q17">
+        <v>0.6199047015909999</v>
+      </c>
+      <c r="R17">
+        <v>3.719428209546</v>
+      </c>
+      <c r="S17">
+        <v>0.00152039662879062</v>
+      </c>
+      <c r="T17">
+        <v>0.001024199217347417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5410005</v>
+      </c>
+      <c r="H18">
+        <v>1.082001</v>
+      </c>
+      <c r="I18">
+        <v>0.003331502913995475</v>
+      </c>
+      <c r="J18">
+        <v>0.002244231940858047</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.121905666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.365717</v>
+      </c>
+      <c r="O18">
+        <v>0.4468335543128307</v>
+      </c>
+      <c r="P18">
+        <v>0.4468335543128308</v>
+      </c>
+      <c r="Q18">
+        <v>0.6069515266195</v>
+      </c>
+      <c r="R18">
+        <v>3.641709159717</v>
+      </c>
+      <c r="S18">
+        <v>0.001488627288264151</v>
+      </c>
+      <c r="T18">
+        <v>0.001002798134835984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5410005</v>
+      </c>
+      <c r="H19">
+        <v>1.082001</v>
+      </c>
+      <c r="I19">
+        <v>0.003331502913995475</v>
+      </c>
+      <c r="J19">
+        <v>0.002244231940858047</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2430366666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.72911</v>
+      </c>
+      <c r="O19">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="P19">
+        <v>0.09679685273153626</v>
+      </c>
+      <c r="Q19">
+        <v>0.131482958185</v>
+      </c>
+      <c r="R19">
+        <v>0.78889774911</v>
+      </c>
+      <c r="S19">
+        <v>0.0003224789969407039</v>
+      </c>
+      <c r="T19">
+        <v>0.0002172345886746462</v>
       </c>
     </row>
   </sheetData>
